--- a/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido-Sucursales.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido-Sucursales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F08458-EA09-469E-B9DA-E0CEB3DB4C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216529D-345A-4D0B-A555-6421FFCB86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Objeto Dominio-Ciudad" sheetId="69" r:id="rId5"/>
     <sheet name="Objeto Dominio-Sucursal" sheetId="66" r:id="rId6"/>
     <sheet name="Objeto Dominio-HorarioLaboral" sheetId="71" r:id="rId7"/>
+    <sheet name="Objeto Dominio-Inventario" sheetId="72" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$4</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="275">
   <si>
     <t>Descripción</t>
   </si>
@@ -851,6 +852,45 @@
   </si>
   <si>
     <t>Pol-HorarioLaboral-005</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>Inventario</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada Inventario</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un inventario</t>
+  </si>
+  <si>
+    <t>Nombre Inventario</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un pais con el mismo nombre</t>
+  </si>
+  <si>
+    <t>Reponsabilidad 1</t>
+  </si>
+  <si>
+    <t>Reponsabilidad 2</t>
+  </si>
+  <si>
+    <t>Reponsabilidad 3</t>
+  </si>
+  <si>
+    <t>Reponsabilidad 4</t>
+  </si>
+  <si>
+    <t>Referenciado</t>
+  </si>
+  <si>
+    <t>Inventarios</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion del inventario según su productos y su sucursal</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1008,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1357,13 +1397,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1527,6 +1628,243 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1551,211 +1889,31 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,33 +1940,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1827,6 +1958,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1839,9 +1973,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1851,6 +1982,97 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1883,20 +2105,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>610749</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>154686</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486587</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124241</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53FC928C-3ABA-5D10-DCEF-B8A3F5FA21F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA3458-DE9C-E93D-2D3F-3E74C3BA5AED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,8 +2134,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11206"/>
-          <a:ext cx="8230749" cy="4334480"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5820587" cy="2981741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2241,7 +2463,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,11 +2483,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,6 +2582,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="176" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="204" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="'Objeto Dominio 1'!A1" display="Sucursal" xr:uid="{9287F3D4-76AD-4D37-90A4-8A132A27799C}"/>
@@ -2367,6 +2603,7 @@
     <hyperlink ref="A4" location="Departamento!A1" display="Departamento" xr:uid="{237441CB-1381-46DF-9A83-E2031C1536E2}"/>
     <hyperlink ref="A5" location="'Objeto Dominio-Ciudad'!A1" display="Ciudad" xr:uid="{19C68F4C-61F5-44C8-8CFB-400AC4D82D7B}"/>
     <hyperlink ref="A6" location="Horariolaboral!A1" display="HorarioLaboral" xr:uid="{97CE2FCB-895D-4BC4-A8C9-8B03D58BDD06}"/>
+    <hyperlink ref="A7" location="Inventario!A1" display="Inventario" xr:uid="{8D4EEDBA-1D7F-4CE4-B8BB-9EDCE0E5936C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2379,7 +2616,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:R20"/>
     </sheetView>
   </sheetViews>
@@ -2410,70 +2647,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="68" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128" t="str">
+      <c r="B3" s="69" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de los paises del mundo </v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2629,11 +2866,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -2659,44 +2896,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="101"/>
-      <c r="C12" s="101" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101" t="s">
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101" t="s">
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101" t="s">
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="101" t="s">
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="102"/>
+      <c r="R12" s="89"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
@@ -2709,12 +2946,12 @@
       <c r="J13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="103"/>
-      <c r="M13" s="103"/>
-      <c r="N13" s="103"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
       <c r="O13" s="18" t="s">
         <v>29</v>
       </c>
@@ -2729,31 +2966,31 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="108" t="s">
+      <c r="B14" s="91"/>
+      <c r="C14" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="114" t="s">
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="116" t="str">
+      <c r="H14" s="102" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I14" s="118" t="s">
+      <c r="I14" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="121"/>
-      <c r="N14" s="122"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="108"/>
       <c r="O14" s="19" t="s">
         <v>109</v>
       </c>
@@ -2768,20 +3005,20 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="107"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="109"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="111"/>
       <c r="O15" s="19" t="s">
         <v>110</v>
       </c>
@@ -2796,31 +3033,31 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="113"/>
+      <c r="C16" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="80" t="s">
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="83" t="str">
+      <c r="H16" s="130" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I16" s="86" t="s">
+      <c r="I16" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="89"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="93"/>
-      <c r="N16" s="94"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="82"/>
       <c r="O16" s="21" t="s">
         <v>111</v>
       </c>
@@ -2835,20 +3072,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="97"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="85"/>
       <c r="O17" s="21" t="s">
         <v>110</v>
       </c>
@@ -2863,20 +3100,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="100"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="132"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="88"/>
       <c r="O18" s="21" t="s">
         <v>112</v>
       </c>
@@ -2891,16 +3128,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="138"/>
       <c r="G19" s="38" t="s">
         <v>96</v>
       </c>
@@ -2912,10 +3149,10 @@
         <v>107</v>
       </c>
       <c r="J19" s="38"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
       <c r="O19" s="26" t="s">
         <v>113</v>
       </c>
@@ -2930,16 +3167,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="63" t="s">
+      <c r="B20" s="141"/>
+      <c r="C20" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
       <c r="G20" s="40" t="s">
         <v>96</v>
       </c>
@@ -2951,10 +3188,10 @@
         <v>108</v>
       </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
       <c r="O20" s="29" t="s">
         <v>114</v>
       </c>
@@ -2970,15 +3207,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="K16:N18"/>
     <mergeCell ref="Q12:R12"/>
@@ -2995,12 +3229,15 @@
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3052,70 +3289,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="68" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128" t="str">
+      <c r="B3" s="69" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que representa a cada uno de los departamentos que pertenecen a un pais</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3318,11 +3555,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -3336,10 +3573,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="149" t="s">
+      <c r="B11" s="146" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50" t="str">
@@ -3348,52 +3585,52 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="148"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="48" t="str">
         <f>A7</f>
         <v>País</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101" t="s">
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101" t="s">
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101" t="s">
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="102"/>
+      <c r="R13" s="89"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -3406,12 +3643,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -3426,30 +3663,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="118" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="138" t="s">
+      <c r="H15" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108"/>
       <c r="O15" s="19" t="s">
         <v>150</v>
       </c>
@@ -3464,20 +3701,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="145"/>
-      <c r="B16" s="146"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="136"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="144"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="148"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="150"/>
       <c r="O16" s="19" t="s">
         <v>151</v>
       </c>
@@ -3492,20 +3729,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="119"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="124"/>
-      <c r="M17" s="124"/>
-      <c r="N17" s="125"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="111"/>
       <c r="O17" s="19" t="s">
         <v>152</v>
       </c>
@@ -3520,30 +3757,30 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="112" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="113"/>
+      <c r="C18" s="118" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="80" t="s">
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="86" t="s">
+      <c r="I18" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="89"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="94"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="21" t="s">
         <v>153</v>
       </c>
@@ -3558,20 +3795,20 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="96"/>
-      <c r="N19" s="97"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="85"/>
       <c r="O19" s="21" t="s">
         <v>151</v>
       </c>
@@ -3586,20 +3823,20 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="100"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="132"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="88"/>
       <c r="O20" s="21" t="s">
         <v>154</v>
       </c>
@@ -3614,16 +3851,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="138"/>
+      <c r="F21" s="138"/>
       <c r="G21" s="38" t="s">
         <v>46</v>
       </c>
@@ -3634,10 +3871,10 @@
         <v>137</v>
       </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
       <c r="O21" s="26" t="s">
         <v>156</v>
       </c>
@@ -3652,16 +3889,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="140" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63" t="s">
+      <c r="B22" s="141"/>
+      <c r="C22" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
       <c r="G22" s="40" t="s">
         <v>46</v>
       </c>
@@ -3672,10 +3909,10 @@
         <v>138</v>
       </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
       <c r="O22" s="29" t="s">
         <v>155</v>
       </c>
@@ -3691,19 +3928,10 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
     <mergeCell ref="K15:N17"/>
     <mergeCell ref="A15:B17"/>
     <mergeCell ref="A22:B22"/>
@@ -3720,10 +3948,19 @@
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3747,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4644E57-D5FD-4BD1-A668-516B14C72B18}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q5" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,70 +4015,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="68" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128" t="str">
+      <c r="B3" s="69" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4125,11 +4362,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="131"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -4143,10 +4380,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="164" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="50" t="str">
@@ -4155,16 +4392,16 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="152"/>
-      <c r="B14" s="155"/>
+      <c r="A14" s="162"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="50" t="str">
         <f>A8</f>
         <v>País</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="153"/>
-      <c r="B15" s="156"/>
+      <c r="A15" s="163"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="50" t="str">
         <f>+A9</f>
         <v>Departamento</v>
@@ -4184,44 +4421,44 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101" t="s">
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="101" t="s">
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="101"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="101" t="s">
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101" t="s">
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="102"/>
+      <c r="R18" s="89"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="18" t="s">
         <v>27</v>
       </c>
@@ -4234,12 +4471,12 @@
       <c r="J19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="103" t="s">
+      <c r="K19" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="103"/>
-      <c r="M19" s="103"/>
-      <c r="N19" s="103"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
       <c r="O19" s="18" t="s">
         <v>29</v>
       </c>
@@ -4254,30 +4491,30 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="91"/>
+      <c r="C20" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="118" t="s">
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="138" t="s">
+      <c r="H20" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="118" t="s">
+      <c r="I20" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="122"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="108"/>
       <c r="O20" s="19" t="s">
         <v>174</v>
       </c>
@@ -4292,20 +4529,20 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="144"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="150"/>
       <c r="O21" s="19" t="s">
         <v>175</v>
       </c>
@@ -4320,20 +4557,20 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="125"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="111"/>
       <c r="O22" s="19" t="s">
         <v>176</v>
       </c>
@@ -4348,30 +4585,30 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="112" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="71" t="s">
+      <c r="B23" s="113"/>
+      <c r="C23" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="80" t="s">
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="86" t="s">
+      <c r="I23" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="93"/>
-      <c r="N23" s="94"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="82"/>
       <c r="O23" s="21" t="s">
         <v>177</v>
       </c>
@@ -4386,20 +4623,20 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="67"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="96"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="97"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="85"/>
       <c r="O24" s="21" t="s">
         <v>175</v>
       </c>
@@ -4414,20 +4651,20 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="100"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="88"/>
       <c r="O25" s="21" t="s">
         <v>178</v>
       </c>
@@ -4442,16 +4679,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="59" t="s">
+      <c r="B26" s="137"/>
+      <c r="C26" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
+      <c r="D26" s="138"/>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
       <c r="G26" s="38" t="s">
         <v>46</v>
       </c>
@@ -4462,10 +4699,10 @@
         <v>172</v>
       </c>
       <c r="J26" s="38"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="60"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
       <c r="O26" s="26" t="s">
         <v>180</v>
       </c>
@@ -4480,16 +4717,16 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63" t="s">
+      <c r="B27" s="141"/>
+      <c r="C27" s="142" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
       <c r="G27" s="40" t="s">
         <v>46</v>
       </c>
@@ -4500,10 +4737,10 @@
         <v>173</v>
       </c>
       <c r="J27" s="40"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
       <c r="O27" s="29" t="s">
         <v>179</v>
       </c>
@@ -4519,6 +4756,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="C23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="A20:B22"/>
@@ -4535,23 +4789,6 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BA3A4ED8-2AE5-4761-B88E-CB3C77CFAE6C}"/>
@@ -4575,10 +4812,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="B18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4608,70 +4845,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="68" t="str">
         <f>'Listado Objetos de Dominio'!A2</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128" t="str">
+      <c r="B3" s="69" t="str">
         <f>'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de las sucursales del Spa</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4723,19 +4960,19 @@
         <v>0</v>
       </c>
       <c r="Q4" s="35" t="str">
-        <f>A23</f>
+        <f>A24</f>
         <v>crear Sucursal</v>
       </c>
       <c r="R4" s="33" t="str">
-        <f>A26</f>
+        <f>A27</f>
         <v>modificar Sucursal</v>
       </c>
       <c r="S4" s="34" t="str">
-        <f>A29</f>
+        <f>A30</f>
         <v>Consultar Sucursal</v>
       </c>
       <c r="T4" s="2" t="str">
-        <f>A30</f>
+        <f>A31</f>
         <v>Eliminar Sucursal</v>
       </c>
     </row>
@@ -4975,9 +5212,8 @@
       <c r="T10" s="29"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="str">
-        <f>'Objeto Dominio-HorarioLaboral'!B2</f>
-        <v>HorarioLaboral</v>
+      <c r="A11" s="49" t="s">
+        <v>262</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4999,437 +5235,462 @@
       <c r="S11" s="26"/>
       <c r="T11" s="29"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="49" t="str">
+        <f>'Objeto Dominio-HorarioLaboral'!B2</f>
+        <v>HorarioLaboral</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="29"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="151" t="s">
+    <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="154" t="s">
+      <c r="B16" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="50" t="str">
+      <c r="C16" s="50" t="str">
         <f>A7</f>
         <v>Direccion</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="152"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="50" t="str">
+    <row r="17" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="162"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="50" t="str">
         <f>A10</f>
         <v>Ciudad</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162" t="s">
+    <row r="18" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="154" t="s">
+      <c r="B18" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="54" t="str">
+      <c r="C18" s="54" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="163"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="52" t="str">
+    <row r="19" spans="1:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="173"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="52" t="str">
         <f>A9</f>
         <v>CorreoElectronico</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="101" t="s">
+      <c r="B22" s="169"/>
+      <c r="C22" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101" t="s">
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101" t="s">
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101" t="s">
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="101" t="s">
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R21" s="102"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="160"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="18" t="s">
+      <c r="R22" s="89"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="170"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H23" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I23" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="103" t="s">
+      <c r="K23" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
-      <c r="O22" s="18" t="s">
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P22" s="18" t="s">
+      <c r="P23" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" s="18" t="s">
+      <c r="Q23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R22" s="23" t="s">
+      <c r="R23" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="108" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="114" t="s">
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="138" t="s">
+      <c r="H24" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="118" t="s">
+      <c r="I24" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="116"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="122"/>
-      <c r="O23" s="19" t="s">
+      <c r="J24" s="102"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="P23" s="19" t="s">
+      <c r="P24" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="Q23" s="20" t="s">
+      <c r="Q24" s="20" t="s">
         <v>225</v>
-      </c>
-      <c r="R23" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="137"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="144"/>
-      <c r="O24" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="P24" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q24" s="20" t="s">
-        <v>94</v>
       </c>
       <c r="R24" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="124"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="125"/>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="151"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
       <c r="O25" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="20" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="R25" s="24" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="92"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="R26" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="71" t="s">
+      <c r="B27" s="113"/>
+      <c r="C27" s="118" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="80" t="s">
+      <c r="D27" s="119"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="83" t="s">
+      <c r="H27" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="86" t="s">
+      <c r="I27" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="J26" s="89"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="21" t="s">
+      <c r="J27" s="77"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="P26" s="22" t="s">
+      <c r="P27" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="Q26" s="22" t="s">
+      <c r="Q27" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="R26" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="P27" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q27" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="R27" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="100"/>
+    <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="114"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="134"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="R28" s="25" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="116"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="P29" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q29" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="59" t="s">
+      <c r="B30" s="137"/>
+      <c r="C30" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="38" t="s">
+      <c r="D30" s="138"/>
+      <c r="E30" s="138"/>
+      <c r="F30" s="138"/>
+      <c r="G30" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="55" t="s">
+      <c r="H30" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="I30" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="60"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="26" t="s">
+      <c r="J30" s="38"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="P29" s="27" t="s">
+      <c r="P30" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="Q29" s="27" t="s">
+      <c r="Q30" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="R29" s="28" t="s">
+      <c r="R30" s="28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+    <row r="31" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63" t="s">
+      <c r="B31" s="141"/>
+      <c r="C31" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="40" t="s">
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="56" t="s">
+      <c r="H31" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I31" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="29" t="s">
+      <c r="J31" s="40"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="P30" s="30" t="s">
+      <c r="P31" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q31" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="R30" s="31" t="s">
+      <c r="R31" s="31" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="C26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:F22"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K26:N28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:F23"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:N26"/>
+    <mergeCell ref="C27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -5439,13 +5700,14 @@
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
     <hyperlink ref="A10" location="'Objeto Dominio-Ciudad'!A1" display="'Objeto Dominio-Ciudad'!A1" xr:uid="{075A0144-A38C-45EE-B86D-FE3ECCA6373D}"/>
-    <hyperlink ref="A11" location="'Objeto Dominio-HorarioLaboral'!A1" display="'Objeto Dominio-HorarioLaboral'!A1" xr:uid="{D857CA73-1A9A-4BAF-ABF5-C04DDA62026E}"/>
-    <hyperlink ref="C15" location="'Objeto Dominio-Sucursal'!A7" display="'Objeto Dominio-Sucursal'!A7" xr:uid="{6E5D47AA-F2D4-451F-9DA6-6799A02843BD}"/>
-    <hyperlink ref="C16" location="'Objeto Dominio-Sucursal'!A11" display="'Objeto Dominio-Sucursal'!A11" xr:uid="{F030C8DB-5B28-44AD-9CDC-09B19AD20780}"/>
-    <hyperlink ref="C18" location="'Objeto Dominio-Sucursal'!A19" display="'Objeto Dominio-Sucursal'!A19" xr:uid="{BFB853EF-1F6F-4457-B3DC-3EAE5AAFC2E9}"/>
-    <hyperlink ref="C17" location="'Objeto Dominio-Sucursal'!A6" display="'Objeto Dominio-Sucursal'!A6" xr:uid="{78FBDDB7-A017-4269-A741-5FDCE1F40453}"/>
-    <hyperlink ref="A30:B30" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{F97EEC94-1416-433B-8554-EF24592B23D8}"/>
-    <hyperlink ref="A29:B29" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{05F73A4C-A8C8-4376-8BED-1C6DCC245A69}"/>
+    <hyperlink ref="A12" location="'Objeto Dominio-HorarioLaboral'!A1" display="'Objeto Dominio-HorarioLaboral'!A1" xr:uid="{D857CA73-1A9A-4BAF-ABF5-C04DDA62026E}"/>
+    <hyperlink ref="C16" location="'Objeto Dominio-Sucursal'!A7" display="'Objeto Dominio-Sucursal'!A7" xr:uid="{6E5D47AA-F2D4-451F-9DA6-6799A02843BD}"/>
+    <hyperlink ref="C17" location="'Objeto Dominio-Sucursal'!A11" display="'Objeto Dominio-Sucursal'!A11" xr:uid="{F030C8DB-5B28-44AD-9CDC-09B19AD20780}"/>
+    <hyperlink ref="C19" location="'Objeto Dominio-Sucursal'!A19" display="'Objeto Dominio-Sucursal'!A19" xr:uid="{BFB853EF-1F6F-4457-B3DC-3EAE5AAFC2E9}"/>
+    <hyperlink ref="C18" location="'Objeto Dominio-Sucursal'!A6" display="'Objeto Dominio-Sucursal'!A6" xr:uid="{78FBDDB7-A017-4269-A741-5FDCE1F40453}"/>
+    <hyperlink ref="A31:B31" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{F97EEC94-1416-433B-8554-EF24592B23D8}"/>
+    <hyperlink ref="A30:B30" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{05F73A4C-A8C8-4376-8BED-1C6DCC245A69}"/>
+    <hyperlink ref="A11" location="'Objeto Dominio-Inventario'!A1" display="inventario" xr:uid="{20C04033-2CA4-4349-99D2-8575841C9D6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5456,7 +5718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84495338-3D0E-4BE4-800D-FFA8CB15E4C6}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -5487,70 +5749,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="127" t="str">
+      <c r="B2" s="68" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
         <v>HorarioLaboral</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="128" t="str">
+      <c r="B3" s="69" t="str">
         <f>'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la hora de inicio y hora de cerrada de la sucursal</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5744,11 +6006,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -5775,44 +6037,44 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="132" t="s">
+      <c r="A13" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101" t="s">
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101" t="s">
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="101"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101"/>
-      <c r="O13" s="101" t="s">
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="101" t="s">
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="102"/>
+      <c r="R13" s="89"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -5825,12 +6087,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="103" t="s">
+      <c r="K14" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -5845,31 +6107,31 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="108" t="s">
+      <c r="B15" s="91"/>
+      <c r="C15" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="114" t="s">
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="116" t="str">
+      <c r="H15" s="102" t="str">
         <f>B7</f>
         <v>Numerico</v>
       </c>
-      <c r="I15" s="118" t="s">
+      <c r="I15" s="104" t="s">
         <v>239</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="121"/>
-      <c r="N15" s="122"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108"/>
       <c r="O15" s="19" t="s">
         <v>243</v>
       </c>
@@ -5884,20 +6146,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="124"/>
-      <c r="M16" s="124"/>
-      <c r="N16" s="125"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="111"/>
       <c r="O16" s="19" t="s">
         <v>244</v>
       </c>
@@ -5912,31 +6174,31 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="113"/>
+      <c r="C17" s="118" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="80" t="s">
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="83" t="str">
+      <c r="H17" s="130" t="str">
         <f>B7</f>
         <v>Numerico</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="133" t="s">
         <v>240</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="94"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="82"/>
       <c r="O17" s="21" t="s">
         <v>245</v>
       </c>
@@ -5951,20 +6213,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="97"/>
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="85"/>
       <c r="O18" s="21" t="s">
         <v>244</v>
       </c>
@@ -5979,20 +6241,20 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="100"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="88"/>
       <c r="O19" s="21" t="s">
         <v>261</v>
       </c>
@@ -6007,16 +6269,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="138"/>
+      <c r="F20" s="138"/>
       <c r="G20" s="38" t="s">
         <v>238</v>
       </c>
@@ -6028,10 +6290,10 @@
         <v>241</v>
       </c>
       <c r="J20" s="38"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
       <c r="O20" s="26" t="s">
         <v>246</v>
       </c>
@@ -6046,16 +6308,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="140" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63" t="s">
+      <c r="B21" s="141"/>
+      <c r="C21" s="142" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
       <c r="G21" s="40" t="s">
         <v>238</v>
       </c>
@@ -6067,10 +6329,10 @@
         <v>242</v>
       </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
       <c r="O21" s="29" t="s">
         <v>247</v>
       </c>
@@ -6086,13 +6348,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="O13:P13"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:F16"/>
     <mergeCell ref="G15:G16"/>
@@ -6102,21 +6372,13 @@
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="J15:J16"/>
     <mergeCell ref="K15:N16"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{8E207C90-917A-4311-90B7-19CA4BE7C54B}"/>
@@ -6132,22 +6394,468 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDEEF1A-ED62-4B8D-B4EB-E36151625124}">
+  <dimension ref="A1:T18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="197" t="str">
+        <f>'Listado Objetos de Dominio'!A7</f>
+        <v>Inventario</v>
+      </c>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="202"/>
+    </row>
+    <row r="3" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="194" t="str">
+        <f>'Listado Objetos de Dominio'!B7</f>
+        <v>Objeto de dominio que contiene la informacion del inventario según su productos y su sucursal</v>
+      </c>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="203"/>
+      <c r="G3" s="203"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="203"/>
+      <c r="O3" s="203"/>
+      <c r="P3" s="203"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="200" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="200" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="200" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="200" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="200" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="200" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="200" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="200" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="35" t="str">
+        <f>A15</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="R4" s="33" t="str">
+        <f>A16</f>
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="S4" s="34" t="str">
+        <f>A17</f>
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="T4" s="2" t="str">
+        <f>A18</f>
+        <v>Reponsabilidad 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="29"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="60"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="66"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="178" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="179"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="182" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="183"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="185"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="186"/>
+      <c r="L16" s="186"/>
+      <c r="M16" s="186"/>
+      <c r="N16" s="186"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="187" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="188"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="28"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="191" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="192"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{CB65219E-FAE2-4848-B80F-DFD436C867A9}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{199D8F6E-E6B4-4D0D-8EBA-243B8AD4EFDE}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{614595AB-4167-47BD-8179-F8D354EB39D8}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{B7544926-4893-4158-9AF6-47F2CE4FB327}"/>
+    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{789D3603-4EF5-4A2E-A094-88B49F25D0DA}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{83564A42-76E6-45CE-8376-CD806BAD011D}"/>
+    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{4FDC775F-886D-46E4-AAB2-FA662F6335CA}"/>
+    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{5AF94D65-BEC4-46D5-A3D0-F8614661199B}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{8935ED35-0737-4E8A-AB92-6D40E9FA9051}"/>
+    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{DAD9E994-AFF4-498F-92B2-2E8D8AFC5A4A}"/>
+    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{691CF3EE-2C7C-4944-B7DA-DB62C642BD15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -6291,24 +6999,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6326,6 +7032,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{6ebbfa72-b3b6-4c1f-8b23-058d4f67f013}" enabled="1" method="Privileged" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="0" removed="0"/>

--- a/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido-Sucursales.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido-Sucursales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8216529D-345A-4D0B-A555-6421FFCB86E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6E463D-C3FF-4701-B2DD-A4879640FA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="7" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -1658,6 +1658,286 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1679,215 +1959,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1901,45 +2013,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1958,87 +2031,30 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2057,22 +2073,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2108,17 +2108,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>486587</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>124241</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>191590</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>67243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA3458-DE9C-E93D-2D3F-3E74C3BA5AED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DD198E-481F-9A31-F982-0AA224B02407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2135,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5820587" cy="2981741"/>
+          <a:ext cx="7811590" cy="4067743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2462,7 +2462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2583,16 +2583,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="91" t="s">
         <v>263</v>
       </c>
       <c r="B7" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="204" t="s">
+      <c r="D7" s="90" t="s">
         <v>273</v>
       </c>
     </row>
@@ -2647,70 +2647,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="162" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="163" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de los paises del mundo </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2866,11 +2866,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -2896,44 +2896,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74" t="s">
+      <c r="B12" s="112"/>
+      <c r="C12" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74" t="s">
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74" t="s">
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74" t="s">
+      <c r="P12" s="112"/>
+      <c r="Q12" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="89"/>
+      <c r="R12" s="113"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
@@ -2946,12 +2946,12 @@
       <c r="J13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
       <c r="O13" s="18" t="s">
         <v>29</v>
       </c>
@@ -2966,31 +2966,31 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="94" t="s">
+      <c r="B14" s="116"/>
+      <c r="C14" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="100" t="s">
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="102" t="str">
+      <c r="H14" s="127" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I14" s="104" t="s">
+      <c r="I14" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="108"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="131"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="133"/>
       <c r="O14" s="19" t="s">
         <v>109</v>
       </c>
@@ -3005,20 +3005,20 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="111"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
       <c r="O15" s="19" t="s">
         <v>110</v>
       </c>
@@ -3033,31 +3033,31 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="112" t="s">
+      <c r="A16" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="B16" s="113"/>
-      <c r="C16" s="118" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="127" t="s">
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="130" t="str">
+      <c r="H16" s="155" t="str">
         <f>B6</f>
         <v>Alfanumerico</v>
       </c>
-      <c r="I16" s="133" t="s">
+      <c r="I16" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="J16" s="77"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="82"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="105"/>
       <c r="O16" s="21" t="s">
         <v>111</v>
       </c>
@@ -3072,20 +3072,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="121"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="85"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="108"/>
       <c r="O17" s="21" t="s">
         <v>110</v>
       </c>
@@ -3100,20 +3100,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="88"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="111"/>
       <c r="O18" s="21" t="s">
         <v>112</v>
       </c>
@@ -3128,16 +3128,16 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136" t="s">
+      <c r="A19" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="138" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
       <c r="G19" s="38" t="s">
         <v>96</v>
       </c>
@@ -3149,10 +3149,10 @@
         <v>107</v>
       </c>
       <c r="J19" s="38"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
       <c r="O19" s="26" t="s">
         <v>113</v>
       </c>
@@ -3167,16 +3167,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="140" t="s">
+      <c r="A20" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="40" t="s">
         <v>96</v>
       </c>
@@ -3188,10 +3188,10 @@
         <v>108</v>
       </c>
       <c r="J20" s="40"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
       <c r="O20" s="29" t="s">
         <v>114</v>
       </c>
@@ -3207,12 +3207,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="O12:P12"/>
     <mergeCell ref="J16:J18"/>
     <mergeCell ref="K16:N18"/>
     <mergeCell ref="Q12:R12"/>
@@ -3229,15 +3232,12 @@
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3289,70 +3289,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="162" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="163" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que representa a cada uno de los departamentos que pertenecen a un pais</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3555,11 +3555,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -3573,10 +3573,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="184" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50" t="str">
@@ -3585,52 +3585,52 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="145"/>
-      <c r="B12" s="147"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="48" t="str">
         <f>A7</f>
         <v>País</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74" t="s">
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74" t="s">
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74" t="s">
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74" t="s">
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -3643,12 +3643,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -3663,30 +3663,30 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="104" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="157" t="s">
+      <c r="H15" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="108"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
       <c r="O15" s="19" t="s">
         <v>150</v>
       </c>
@@ -3701,20 +3701,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="151"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="155"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="148"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="150"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="178"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="181"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="176"/>
       <c r="O16" s="19" t="s">
         <v>151</v>
       </c>
@@ -3729,20 +3729,20 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="92"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="111"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
       <c r="O17" s="19" t="s">
         <v>152</v>
       </c>
@@ -3757,30 +3757,30 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="118" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="127" t="s">
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="130" t="s">
+      <c r="H18" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="I18" s="133" t="s">
+      <c r="I18" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="77"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="82"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="105"/>
       <c r="O18" s="21" t="s">
         <v>153</v>
       </c>
@@ -3795,20 +3795,20 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="85"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="108"/>
       <c r="O19" s="21" t="s">
         <v>151</v>
       </c>
@@ -3823,20 +3823,20 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="88"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="110"/>
+      <c r="M20" s="110"/>
+      <c r="N20" s="111"/>
       <c r="O20" s="21" t="s">
         <v>154</v>
       </c>
@@ -3851,16 +3851,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
       <c r="G21" s="38" t="s">
         <v>46</v>
       </c>
@@ -3871,10 +3871,10 @@
         <v>137</v>
       </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
       <c r="O21" s="26" t="s">
         <v>156</v>
       </c>
@@ -3889,16 +3889,16 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="140" t="s">
+      <c r="A22" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="40" t="s">
         <v>46</v>
       </c>
@@ -3909,10 +3909,10 @@
         <v>138</v>
       </c>
       <c r="J22" s="40"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="29" t="s">
         <v>155</v>
       </c>
@@ -3928,11 +3928,19 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:N17"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:F14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:N13"/>
     <mergeCell ref="A15:B17"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:F22"/>
@@ -3948,19 +3956,11 @@
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -4015,70 +4015,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="162" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="163" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4362,11 +4362,11 @@
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
@@ -4380,10 +4380,10 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="161" t="s">
+      <c r="A13" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="164" t="s">
+      <c r="B13" s="189" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="50" t="str">
@@ -4392,16 +4392,16 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
-      <c r="B14" s="165"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="190"/>
       <c r="C14" s="50" t="str">
         <f>A8</f>
         <v>País</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="163"/>
-      <c r="B15" s="166"/>
+      <c r="A15" s="188"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="50" t="str">
         <f>+A9</f>
         <v>Departamento</v>
@@ -4421,44 +4421,44 @@
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74" t="s">
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74" t="s">
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74" t="s">
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74" t="s">
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="R18" s="89"/>
+      <c r="R18" s="113"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
       <c r="G19" s="18" t="s">
         <v>27</v>
       </c>
@@ -4471,12 +4471,12 @@
       <c r="J19" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="K19" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
       <c r="O19" s="18" t="s">
         <v>29</v>
       </c>
@@ -4491,30 +4491,30 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="91"/>
-      <c r="C20" s="94" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="119" t="s">
         <v>166</v>
       </c>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="104" t="s">
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="157" t="s">
+      <c r="H20" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="104" t="s">
+      <c r="I20" s="129" t="s">
         <v>170</v>
       </c>
-      <c r="J20" s="102"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="108"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="133"/>
       <c r="O20" s="19" t="s">
         <v>174</v>
       </c>
@@ -4529,20 +4529,20 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="148"/>
-      <c r="L21" s="149"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="150"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="178"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="174"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="176"/>
       <c r="O21" s="19" t="s">
         <v>175</v>
       </c>
@@ -4557,20 +4557,20 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="111"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
       <c r="O22" s="19" t="s">
         <v>176</v>
       </c>
@@ -4585,30 +4585,30 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="118" t="s">
+      <c r="B23" s="138"/>
+      <c r="C23" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="127" t="s">
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="130" t="s">
+      <c r="H23" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="133" t="s">
+      <c r="I23" s="158" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="77"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="81"/>
-      <c r="M23" s="81"/>
-      <c r="N23" s="82"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="105"/>
       <c r="O23" s="21" t="s">
         <v>177</v>
       </c>
@@ -4623,20 +4623,20 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="85"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="140"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="108"/>
       <c r="O24" s="21" t="s">
         <v>175</v>
       </c>
@@ -4651,20 +4651,20 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="125"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="88"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="111"/>
       <c r="O25" s="21" t="s">
         <v>178</v>
       </c>
@@ -4679,16 +4679,16 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="136" t="s">
+      <c r="A26" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="138" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="94" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="38" t="s">
         <v>46</v>
       </c>
@@ -4699,10 +4699,10 @@
         <v>172</v>
       </c>
       <c r="J26" s="38"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
       <c r="O26" s="26" t="s">
         <v>180</v>
       </c>
@@ -4717,16 +4717,16 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="140" t="s">
+      <c r="A27" s="96" t="s">
         <v>165</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142" t="s">
+      <c r="B27" s="97"/>
+      <c r="C27" s="98" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
       <c r="G27" s="40" t="s">
         <v>46</v>
       </c>
@@ -4737,10 +4737,10 @@
         <v>173</v>
       </c>
       <c r="J27" s="40"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
       <c r="O27" s="29" t="s">
         <v>179</v>
       </c>
@@ -4756,23 +4756,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="A20:B22"/>
@@ -4789,6 +4772,23 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:N25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="A23:B25"/>
+    <mergeCell ref="C23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="K20:N22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BA3A4ED8-2AE5-4761-B88E-CB3C77CFAE6C}"/>
@@ -4845,70 +4845,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="162" t="str">
         <f>'Listado Objetos de Dominio'!A2</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="163" t="str">
         <f>'Listado Objetos de Dominio'!B2</f>
         <v>Objeto de dominio que contiene la informacion de las sucursales del Spa</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5261,11 +5261,11 @@
       <c r="T12" s="29"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -5279,10 +5279,10 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="189" t="s">
         <v>93</v>
       </c>
       <c r="C16" s="50" t="str">
@@ -5291,18 +5291,18 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="162"/>
-      <c r="B17" s="165"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="190"/>
       <c r="C17" s="50" t="str">
         <f>A10</f>
         <v>Ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="164" t="s">
+      <c r="B18" s="189" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="54" t="str">
@@ -5311,8 +5311,8 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
-      <c r="B19" s="174"/>
+      <c r="A19" s="197"/>
+      <c r="B19" s="198"/>
       <c r="C19" s="52" t="str">
         <f>A9</f>
         <v>CorreoElectronico</v>
@@ -5321,44 +5321,44 @@
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="168" t="s">
+      <c r="A22" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="193"/>
+      <c r="C22" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74" t="s">
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74" t="s">
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74" t="s">
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74" t="s">
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="89"/>
+      <c r="R22" s="113"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="A23" s="194"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
       <c r="G23" s="18" t="s">
         <v>27</v>
       </c>
@@ -5371,12 +5371,12 @@
       <c r="J23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="K23" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="76"/>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
       <c r="O23" s="18" t="s">
         <v>29</v>
       </c>
@@ -5391,30 +5391,30 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="94" t="s">
+      <c r="B24" s="116"/>
+      <c r="C24" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="100" t="s">
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="157" t="s">
+      <c r="H24" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="104" t="s">
+      <c r="I24" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="133"/>
       <c r="O24" s="19" t="s">
         <v>207</v>
       </c>
@@ -5429,20 +5429,20 @@
       </c>
     </row>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="150"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="178"/>
+      <c r="C25" s="179"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="199"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="176"/>
       <c r="O25" s="19" t="s">
         <v>208</v>
       </c>
@@ -5457,20 +5457,20 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="111"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
       <c r="O26" s="19" t="s">
         <v>209</v>
       </c>
@@ -5485,30 +5485,30 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="137" t="s">
         <v>196</v>
       </c>
-      <c r="B27" s="113"/>
-      <c r="C27" s="118" t="s">
+      <c r="B27" s="138"/>
+      <c r="C27" s="143" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="127" t="s">
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="130" t="s">
+      <c r="H27" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="133" t="s">
+      <c r="I27" s="158" t="s">
         <v>204</v>
       </c>
-      <c r="J27" s="77"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="105"/>
       <c r="O27" s="21" t="s">
         <v>210</v>
       </c>
@@ -5523,20 +5523,20 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="121"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="134"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="140"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="108"/>
       <c r="O28" s="21" t="s">
         <v>208</v>
       </c>
@@ -5551,20 +5551,20 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="88"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="111"/>
       <c r="O29" s="21" t="s">
         <v>211</v>
       </c>
@@ -5579,16 +5579,16 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="92" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="138" t="s">
+      <c r="B30" s="93"/>
+      <c r="C30" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
       <c r="G30" s="38" t="s">
         <v>46</v>
       </c>
@@ -5599,10 +5599,10 @@
         <v>205</v>
       </c>
       <c r="J30" s="38"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
       <c r="O30" s="26" t="s">
         <v>213</v>
       </c>
@@ -5617,16 +5617,16 @@
       </c>
     </row>
     <row r="31" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="140" t="s">
+      <c r="A31" s="96" t="s">
         <v>198</v>
       </c>
-      <c r="B31" s="141"/>
-      <c r="C31" s="142" t="s">
+      <c r="B31" s="97"/>
+      <c r="C31" s="98" t="s">
         <v>202</v>
       </c>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
       <c r="G31" s="40" t="s">
         <v>46</v>
       </c>
@@ -5637,10 +5637,10 @@
         <v>206</v>
       </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
       <c r="O31" s="29" t="s">
         <v>212</v>
       </c>
@@ -5656,15 +5656,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:N26"/>
+    <mergeCell ref="C27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:P1"/>
@@ -5680,17 +5682,15 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:N26"/>
-    <mergeCell ref="C27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A27:B29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -5749,70 +5749,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="162" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
         <v>HorarioLaboral</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="163" t="str">
         <f>'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la hora de inicio y hora de cerrada de la sucursal</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6006,11 +6006,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -6037,44 +6037,44 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="167" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74" t="s">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74" t="s">
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74" t="s">
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74" t="s">
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74" t="s">
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="89"/>
+      <c r="R13" s="113"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
+      <c r="A14" s="168"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -6087,12 +6087,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="76" t="s">
+      <c r="K14" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -6107,31 +6107,31 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="115" t="s">
         <v>230</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="116"/>
+      <c r="C15" s="119" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="100" t="s">
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="102" t="str">
+      <c r="H15" s="127" t="str">
         <f>B7</f>
         <v>Numerico</v>
       </c>
-      <c r="I15" s="104" t="s">
+      <c r="I15" s="129" t="s">
         <v>239</v>
       </c>
-      <c r="J15" s="102"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="108"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
       <c r="O15" s="19" t="s">
         <v>243</v>
       </c>
@@ -6146,20 +6146,20 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="111"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="136"/>
       <c r="O16" s="19" t="s">
         <v>244</v>
       </c>
@@ -6174,31 +6174,31 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="137" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="113"/>
-      <c r="C17" s="118" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="127" t="s">
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="130" t="str">
+      <c r="H17" s="155" t="str">
         <f>B7</f>
         <v>Numerico</v>
       </c>
-      <c r="I17" s="133" t="s">
+      <c r="I17" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="J17" s="77"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="82"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="105"/>
       <c r="O17" s="21" t="s">
         <v>245</v>
       </c>
@@ -6213,20 +6213,20 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="85"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
       <c r="O18" s="21" t="s">
         <v>244</v>
       </c>
@@ -6241,20 +6241,20 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="88"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
+      <c r="N19" s="111"/>
       <c r="O19" s="21" t="s">
         <v>261</v>
       </c>
@@ -6269,16 +6269,16 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="138" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="38" t="s">
         <v>238</v>
       </c>
@@ -6290,10 +6290,10 @@
         <v>241</v>
       </c>
       <c r="J20" s="38"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
       <c r="O20" s="26" t="s">
         <v>246</v>
       </c>
@@ -6308,16 +6308,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="140" t="s">
+      <c r="A21" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="40" t="s">
         <v>238</v>
       </c>
@@ -6329,10 +6329,10 @@
         <v>242</v>
       </c>
       <c r="J21" s="40"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="29" t="s">
         <v>247</v>
       </c>
@@ -6348,12 +6348,22 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:N19"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="C17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:N16"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -6363,22 +6373,12 @@
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
     <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{8E207C90-917A-4311-90B7-19CA4BE7C54B}"/>
@@ -6398,7 +6398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDEEF1A-ED62-4B8D-B4EB-E36151625124}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6452,47 +6452,47 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="197" t="str">
+      <c r="B2" s="203" t="str">
         <f>'Listado Objetos de Dominio'!A7</f>
         <v>Inventario</v>
       </c>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="202"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="194" t="str">
+      <c r="B3" s="200" t="str">
         <f>'Listado Objetos de Dominio'!B7</f>
         <v>Objeto de dominio que contiene la informacion del inventario según su productos y su sucursal</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203"/>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -6510,37 +6510,37 @@
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="200" t="s">
+      <c r="F4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="200" t="s">
+      <c r="G4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="200" t="s">
+      <c r="H4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="200" t="s">
+      <c r="I4" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="200" t="s">
+      <c r="J4" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="200" t="s">
+      <c r="K4" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="200" t="s">
+      <c r="L4" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="200" t="s">
+      <c r="M4" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="200" t="s">
+      <c r="N4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="200" t="s">
+      <c r="O4" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="201" t="s">
+      <c r="P4" s="87" t="s">
         <v>0</v>
       </c>
       <c r="Q4" s="35" t="str">
@@ -6665,7 +6665,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="69" t="s">
         <v>266</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -6746,60 +6746,60 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="70" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="179"/>
-      <c r="C15" s="180"/>
-      <c r="D15" s="180"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="180"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="181"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="183"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="184"/>
-      <c r="G16" s="185"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="184"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="186"/>
-      <c r="L16" s="186"/>
-      <c r="M16" s="186"/>
-      <c r="N16" s="186"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
       <c r="O16" s="21"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="79" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="188"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
-      <c r="G17" s="189"/>
-      <c r="H17" s="190"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="37"/>
       <c r="J17" s="38"/>
       <c r="K17" s="57"/>
@@ -6812,16 +6812,16 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="191" t="s">
+      <c r="A18" s="83" t="s">
         <v>271</v>
       </c>
-      <c r="B18" s="192"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="193"/>
+      <c r="H18" s="85"/>
       <c r="I18" s="39"/>
       <c r="J18" s="40"/>
       <c r="K18" s="58"/>
@@ -7000,18 +7000,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7033,18 +7033,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido-Sucursales.xlsx
+++ b/SpaOnline/ModeloDominioEnriquecido/ModelodeDominioEnriquecido-Sucursales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominioEnriquecido\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6E463D-C3FF-4701-B2DD-A4879640FA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA829B7-4216-433F-B26B-24EBE407A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="5" activeTab="5" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de dominio anémico" sheetId="61" r:id="rId1"/>
@@ -19,9 +19,12 @@
     <sheet name="Objeto Dominio-Departamento" sheetId="68" r:id="rId4"/>
     <sheet name="Objeto Dominio-Ciudad" sheetId="69" r:id="rId5"/>
     <sheet name="Objeto Dominio-Sucursal" sheetId="66" r:id="rId6"/>
-    <sheet name="Objeto Dominio-HorarioLaboral" sheetId="71" r:id="rId7"/>
-    <sheet name="Objeto Dominio-Inventario" sheetId="72" r:id="rId8"/>
+    <sheet name="Objeto Dominio-Agenda" sheetId="71" r:id="rId7"/>
+    <sheet name="Objeto Dominio-Spa" sheetId="72" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$1:$B$4</definedName>
   </definedNames>
@@ -66,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="191">
   <si>
     <t>Descripción</t>
   </si>
@@ -272,18 +275,6 @@
     <t>No es posible tener mas de una ciudad con el mismo nombre en un departamento</t>
   </si>
   <si>
-    <t>Nombre de ciudad + coidgo postal</t>
-  </si>
-  <si>
-    <t>No es posible tener mas de una ciudad con el mismo codigo postal</t>
-  </si>
-  <si>
-    <t>HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la hora de inicio y hora de cerrada de la sucursal</t>
-  </si>
-  <si>
     <t>HoraInicio</t>
   </si>
   <si>
@@ -293,24 +284,6 @@
     <t>Numerico</t>
   </si>
   <si>
-    <t>Atributo que contiene un identificador que hace unico a cada HoraroLaboral</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la hora de inicio del horario laboral de la sucursal</t>
-  </si>
-  <si>
-    <t>Atributo que contiene la hora de fin del horario laboral de la sucursal</t>
-  </si>
-  <si>
-    <t>horario laboral unico</t>
-  </si>
-  <si>
-    <t>hora de inicio y hora de fin del horario la boral de una sucursal</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la informacion de las sucursales del Spa</t>
-  </si>
-  <si>
     <t>Direccion</t>
   </si>
   <si>
@@ -338,321 +311,54 @@
     <t>Atributo que contiene el correo electronico que hace unica a cada sucursal</t>
   </si>
   <si>
-    <t>No es posible tener mas de una sucursal con el mismo nombre y correo electronico</t>
-  </si>
-  <si>
-    <t>Nombre de sucursal + correo</t>
-  </si>
-  <si>
-    <t>Ubicación de sucursal unica</t>
-  </si>
-  <si>
-    <t>No es posible tener mas de una sucursal con la misma direccion en una ciudad</t>
-  </si>
-  <si>
     <t>Se genera una excepcion indicando que violaciones respecto a tipo de dato, longitud, obligatoriedad, formato o rango no se cumplieron</t>
   </si>
   <si>
     <t>Si se envía parametros de consulta, deben ser validos a nivel de tipo de datos, longitud, obligatoriedad, formato, rango</t>
   </si>
   <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>crear Pais</t>
-  </si>
-  <si>
-    <t>modificar Pais</t>
-  </si>
-  <si>
     <t>Consultar Pais</t>
   </si>
   <si>
-    <t>Eliminar Pais</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de agregar nuevos Paises al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Pais en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
-  </si>
-  <si>
     <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Pais registrado en el sistema.</t>
   </si>
   <si>
-    <t>Esta responsabilidad implica el proceso de eliminar un Pais del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Pais en el sistema.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Pais.</t>
-  </si>
-  <si>
     <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Pais.</t>
   </si>
   <si>
-    <t>Parametro que hace unico a cada Pais.</t>
-  </si>
-  <si>
     <t>Pol-Pais-001</t>
   </si>
   <si>
-    <t>Pol-Pais-002</t>
-  </si>
-  <si>
-    <t>Pol-Pais-004</t>
-  </si>
-  <si>
-    <t>Pol-Pais005</t>
-  </si>
-  <si>
-    <t>Pol-Pais-003</t>
-  </si>
-  <si>
-    <t>Pol-Pais-006</t>
-  </si>
-  <si>
-    <t>No debe existir otro Pais con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Los datos del nuevo Pais deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
-  </si>
-  <si>
-    <t>No debe existir otro Pais con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
-  </si>
-  <si>
-    <t>Debe existir el Pais que se esta modificando</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un Pais creado con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un Pais con el mismo nombre</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que el Pais no existe.</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Pais</t>
-  </si>
-  <si>
-    <t>Cancelar la creacion del Pais</t>
-  </si>
-  <si>
-    <t>cancelar la modificacion del Pais</t>
-  </si>
-  <si>
     <t>Cancelar Consulta del Pais</t>
   </si>
   <si>
-    <t>cancelar la Eliminacion del Pais</t>
-  </si>
-  <si>
-    <t>crear Departamento</t>
-  </si>
-  <si>
-    <t>modificar Departamento</t>
-  </si>
-  <si>
     <t>Consultar Departamento</t>
   </si>
   <si>
-    <t>Eliminar Departamento</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de agregar nuevos Departamentos al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un Departamento en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
-  </si>
-  <si>
     <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un Departamento registrado en el sistema.</t>
   </si>
   <si>
-    <t>Esta responsabilidad implica el proceso de eliminar un Departamento del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo Departamento en el sistema.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un Departamento.</t>
-  </si>
-  <si>
     <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un Departamento.</t>
   </si>
   <si>
-    <t>Parametro que hace unico a cada Departamento.</t>
-  </si>
-  <si>
-    <t>Debe existir un Pais al cual debe estar asociado el Departamento</t>
-  </si>
-  <si>
-    <t>No debe existir otro Departamento con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Los datos del nuevo Departamento deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
-  </si>
-  <si>
-    <t>Que el Departamento exista y que no tenga productos asociados</t>
-  </si>
-  <si>
-    <t>Que el Pais exista y que no tenga Departamento asociados</t>
-  </si>
-  <si>
-    <t>No debe existir otro Departamento con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
-  </si>
-  <si>
-    <t>Debe existir el Departamento que se esta modificando</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un Departamento creado con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que no se puede crear el pais porque no cumple con la politica.</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un Departamento con el mismo nombre</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que el Departamento no existe.</t>
-  </si>
-  <si>
     <t>Pol-Departamento-001</t>
   </si>
   <si>
-    <t>Pol-Departamento-002</t>
-  </si>
-  <si>
-    <t>Pol-Departamento-003</t>
-  </si>
-  <si>
-    <t>Pol-Departamento-005</t>
-  </si>
-  <si>
-    <t>Pol-Departamento-006</t>
-  </si>
-  <si>
-    <t>Pol-Departamento-007</t>
-  </si>
-  <si>
-    <t>Pol-Departamento-004</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que no cumple la politica para eliminar el Departamento</t>
-  </si>
-  <si>
-    <t>cancelar la Eliminacion del Departamento</t>
-  </si>
-  <si>
     <t>Cancelar Consulta del Departamento</t>
   </si>
   <si>
-    <t>cancelar la modificacion del Departamento</t>
-  </si>
-  <si>
-    <t>Cancelar la creacion del Departamento</t>
-  </si>
-  <si>
-    <t>crear Ciudad</t>
-  </si>
-  <si>
-    <t>modificar Ciudad</t>
-  </si>
-  <si>
     <t>Consultar Ciudad</t>
   </si>
   <si>
-    <t>Eliminar Ciudad</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de agregar nuevas Ciudades al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de una Ciudad en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre una Ciudad registrado en el sistema.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de eliminar una Ciudad del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de una nueva Ciudad en el sistema.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de una Ciudad.</t>
-  </si>
-  <si>
     <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de una Ciudad.</t>
   </si>
   <si>
-    <t>Parametro que hace unico a cada Ciudad.</t>
-  </si>
-  <si>
     <t>Pol-Ciudad-001</t>
   </si>
   <si>
-    <t>Pol-Ciudad-002</t>
-  </si>
-  <si>
-    <t>Pol-Ciudad-003</t>
-  </si>
-  <si>
-    <t>Pol-Ciudad-005</t>
-  </si>
-  <si>
-    <t>Pol-Ciudad-006</t>
-  </si>
-  <si>
-    <t>Pol-Ciudad-007</t>
-  </si>
-  <si>
-    <t>Pol-Ciudad-004</t>
-  </si>
-  <si>
-    <t>Debe existir la Ciudad que se esta modificando</t>
-  </si>
-  <si>
-    <t>Los datos de la nueva Ciudad deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
-  </si>
-  <si>
-    <t>No debe existir otra Ciudad con el mismo nombre, a exepcion de que sea el mismo que se esta modificando.</t>
-  </si>
-  <si>
-    <t>Debe existir un Departamento al cual debe estar asociado la Ciudad</t>
-  </si>
-  <si>
-    <t>No debe existir otra Ciudad con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe una Ciudad creado con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que no se puede crear la Ciudad porque no cumple con la politica.</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe una Ciudad con el mismo nombre</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que la Ciudad no existe.</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que no cumple la politica para eliminar la Ciudad</t>
-  </si>
-  <si>
-    <t>Cancelar la creacion del Ciudad</t>
-  </si>
-  <si>
-    <t>cancelar la modificacion de la Ciudad</t>
-  </si>
-  <si>
     <t>Cancelar Consulta de la Ciudad</t>
   </si>
   <si>
-    <t>cancelar la Eliminacion de la Ciudad</t>
-  </si>
-  <si>
     <t>crear Sucursal</t>
   </si>
   <si>
@@ -686,9 +392,6 @@
     <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de una Sucursal.</t>
   </si>
   <si>
-    <t>Parametro que hace unico a cada Sucursal.</t>
-  </si>
-  <si>
     <t>Pol-Sucursal-001</t>
   </si>
   <si>
@@ -725,12 +428,6 @@
     <t>Debe existir la Sucursal que se esta modificando</t>
   </si>
   <si>
-    <t>Que la Ciudad exista y que no tenga sucursales asociadas</t>
-  </si>
-  <si>
-    <t>Que la Sucursal exista y que no tenga una ciudad  asociada y ningun inventario asociado</t>
-  </si>
-  <si>
     <t>se genera una excepcion indicando que no cumple la politica para eliminar la Sucursal</t>
   </si>
   <si>
@@ -758,139 +455,193 @@
     <t>Cancelar la creacion del Sucursal</t>
   </si>
   <si>
-    <t>crear HorarioLaboral</t>
-  </si>
-  <si>
-    <t>modificar HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Consultar HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Eliminar HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de agregar nuevos HorarioLaborales al sistema, asegurando que se cumplan los criterios y requisitos establecidos.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de actualizar y modificar la información existente de un HorarioLaboral en el sistema, garantizando que los datos sean precisos y estén actualizados.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica la capacidad de buscar y visualizar detalles relevantes sobre un HorarioLaboral registrado en el sistema.</t>
-  </si>
-  <si>
-    <t>Esta responsabilidad implica el proceso de eliminar un HorarioLaboral del sistema cuando sea necesario, asegurando que se sigan los procedimientos adecuados y se cumplan las politicas</t>
-  </si>
-  <si>
-    <t>identificador</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nuevo HorarioLaboral en el sistema.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de un HorarioLaboral.</t>
-  </si>
-  <si>
-    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de un HorarioLaboral.</t>
-  </si>
-  <si>
-    <t>Parametro que hace unico a cada HorarioLaboral.</t>
-  </si>
-  <si>
-    <t>Pol-HorarioLaboral-001</t>
-  </si>
-  <si>
-    <t>Pol-HorarioLaboral-002</t>
-  </si>
-  <si>
-    <t>Pol-HorarioLaboral-004</t>
-  </si>
-  <si>
-    <t>Pol-HorarioLaboral-003</t>
-  </si>
-  <si>
-    <t>Pol-HorarioLaboral-006</t>
-  </si>
-  <si>
-    <t>No debe existir otro HorarioLaboral con el mismo horario</t>
-  </si>
-  <si>
-    <t>Los datos del nuevo HorarioLaboral deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
-  </si>
-  <si>
-    <t>No debe existir otro HorarioLaboral con el mismo horario, a exepcion de que sea el mismo que se esta modificando.</t>
-  </si>
-  <si>
-    <t>Debe existir el HorarioLaboral que se esta modificando</t>
-  </si>
-  <si>
-    <t>Que el HorarioLaboral exista</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un HorarioLaboral creado con el mismo horario</t>
-  </si>
-  <si>
-    <t>Se genera una excepcion indicando que ya existe un HorarioLaboral con el mismo horario</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que el HorarioLaboral no existe.</t>
-  </si>
-  <si>
-    <t>se genera una excepcion indicando que no cumple la politica para eliminar el HorarioLaboral</t>
-  </si>
-  <si>
-    <t>cancelar la Eliminacion del HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Cancelar Consulta del HorarioLaboral</t>
-  </si>
-  <si>
-    <t>cancelar la modificacion del HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Cancelar la creacion del HorarioLaboral</t>
-  </si>
-  <si>
-    <t>Pol-HorarioLaboral-005</t>
-  </si>
-  <si>
-    <t>inventario</t>
-  </si>
-  <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>Atributo que contiene un identificador que hace unico a cada Inventario</t>
-  </si>
-  <si>
-    <t>Atributo que contiene el nombre que identifica a un inventario</t>
-  </si>
-  <si>
-    <t>Nombre Inventario</t>
-  </si>
-  <si>
-    <t>No es posible tener más de un pais con el mismo nombre</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>Referenciado</t>
   </si>
   <si>
-    <t>Inventarios</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la informacion del inventario según su productos y su sucursal</t>
+    <t>Objeto de dominio que contiene la informacion de la ubicación de las sucursales del Spa</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t>Objeto de domino que representa la disponibilidad de la sucursal para agendar las reservas</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Objeto de domino que contiene la información del spa y del personal</t>
+  </si>
+  <si>
+    <t>coidgo postal</t>
+  </si>
+  <si>
+    <t>No es posible tener mas  deun codigo postal con el mismo numero</t>
+  </si>
+  <si>
+    <t>esta accion permite consultar una ciudad dentro del sistema del espa</t>
+  </si>
+  <si>
+    <t>correo electronico unico</t>
+  </si>
+  <si>
+    <t>nombre,ciudad y direccion unico</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de una sucursal con el mismo correo electronico</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de una sucursal con el mismo nombre en la misma ciudad y en la direccion</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion del la sucursal que se desea eliminar</t>
+  </si>
+  <si>
+    <t>No tiene letras</t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada Spa</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el nombre que identifica a un Spa</t>
+  </si>
+  <si>
+    <t>NumeroIdentificacion</t>
+  </si>
+  <si>
+    <t>Atributo que contiene el numero que identifica a la empresa o en este caso el Spa ante el gobierno</t>
+  </si>
+  <si>
+    <t>Tipo Identificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que la Sucursal exista </t>
+  </si>
+  <si>
+    <t>Esta accion permite eliminar  las diferentes agendas</t>
+  </si>
+  <si>
+    <t>Esta accion permite Modificar los datos de las agendas ya creadas</t>
+  </si>
+  <si>
+    <t>Esta accion permite consultar los diferentes Horarios en las que las sucursales esta activa</t>
+  </si>
+  <si>
+    <t>Esta accion permite crear las diferentes agendas en las que que tendra atencion las sucursales  y poder agendar una reserva</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DD(dia)/MM(mes)/AAAA(año)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0:00(a.m/p.m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atributo que permite definir una fecha para la agenda </t>
+  </si>
+  <si>
+    <t>Atributo que contiene un identificador que hace unico a cada Agenda</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la hora de inicio del Agenda de la sucursal</t>
+  </si>
+  <si>
+    <t>Atributo que contiene la hora de fin del Agenda de la sucursal</t>
+  </si>
+  <si>
+    <t>crear Agenda</t>
+  </si>
+  <si>
+    <t>modificar Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultar Agenda </t>
+  </si>
+  <si>
+    <t>Eliminar Agenda</t>
+  </si>
+  <si>
+    <t>Parametro que contiene informacion de la sucursal a elimunar</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para consultar la informacion de una Agenda.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para editar la informacion de una Agenda.</t>
+  </si>
+  <si>
+    <t>Parametro que contiene la informacion de los datos requeridos para registrar la informacion de un nueva Agenda en el sistema.</t>
+  </si>
+  <si>
+    <t>Pol-Agenda-001</t>
+  </si>
+  <si>
+    <t>Pol-Agenda-002</t>
+  </si>
+  <si>
+    <t>Pol-Agenda-004</t>
+  </si>
+  <si>
+    <t>Pol-Agenda-005</t>
+  </si>
+  <si>
+    <t>Pol-Agenda-003</t>
+  </si>
+  <si>
+    <t>Pol-Agenda-006</t>
+  </si>
+  <si>
+    <t>Que la Agenda exista</t>
+  </si>
+  <si>
+    <t>Debe existir la Agenda que se esta modificando</t>
+  </si>
+  <si>
+    <t>Los datos de la nueva Agenda deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato, rango</t>
+  </si>
+  <si>
+    <t>No debe existir otra Agenda con el mismo horario, a exepcion de que sea el mismo que se esta modificando.</t>
+  </si>
+  <si>
+    <t>No debe existir otra Agenda con el mismo horario</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe una Agenda creado con el mismo horario</t>
+  </si>
+  <si>
+    <t>Se genera una excepcion indicando que ya existe una Agenda con el mismo horario</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que la Agenda no existe.</t>
+  </si>
+  <si>
+    <t>se genera una excepcion indicando que no cumple la politica para eliminar la Agenda</t>
+  </si>
+  <si>
+    <t>cancelar la Eliminacion de la Agenda</t>
+  </si>
+  <si>
+    <t>Cancelar Consulta de la Agenda</t>
+  </si>
+  <si>
+    <t>cancelar la modificacion de la Agenda</t>
+  </si>
+  <si>
+    <t>Cancelar la creacion de la Agenda</t>
+  </si>
+  <si>
+    <t>Agenda unica</t>
+  </si>
+  <si>
+    <t>fecha hora de inicio y hora de fin de la Agenda de una sucursal</t>
+  </si>
+  <si>
+    <t>los mismos datos ya definidos</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1296,19 +1047,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1397,74 +1135,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1616,9 +1293,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1628,339 +1302,269 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1971,46 +1575,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2031,6 +1605,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2043,35 +1620,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2104,21 +1660,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>191590</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>67243</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>125331</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>143560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DD198E-481F-9A31-F982-0AA224B02407}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3F1FA1-C5C7-46F8-B448-205B41250A6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,8 +1690,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7811590" cy="4067743"/>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="10793331" cy="4906060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2147,6 +1703,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de dominio anémico"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Spa"/>
+      <sheetName val="TipoIdentificacion"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="Trabajador"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Spa</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Objeto de dominio que contiene todo lo relacionado con la empresa</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Jhonatan Arley Gomez Gomez" id="{E967F9B1-9824-4C6F-BD8E-F6E9E85EAE54}" userId="S::jhonatan.gomez@wiga.io::6eb4563c-22ba-4bd2-8fe7-ce110aefa2fc" providerId="AD"/>
@@ -2154,9 +1745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2194,7 +1785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2300,7 +1891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2442,7 +2033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2462,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,7 +2078,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,7 +2108,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>37</v>
@@ -2569,11 +2160,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
-        <v>70</v>
+      <c r="A6" s="42" t="s">
+        <v>130</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>37</v>
@@ -2583,27 +2174,27 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
-        <v>263</v>
-      </c>
-      <c r="B7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>273</v>
+      <c r="A7" s="162" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Objeto Dominio 1'!A1" display="Sucursal" xr:uid="{9287F3D4-76AD-4D37-90A4-8A132A27799C}"/>
-    <hyperlink ref="A3" location="Pais!A1" display="Pais" xr:uid="{577AD8A3-360D-43B5-8DF1-D999502A5BEB}"/>
-    <hyperlink ref="A4" location="Departamento!A1" display="Departamento" xr:uid="{237441CB-1381-46DF-9A83-E2031C1536E2}"/>
-    <hyperlink ref="A5" location="'Objeto Dominio-Ciudad'!A1" display="Ciudad" xr:uid="{19C68F4C-61F5-44C8-8CFB-400AC4D82D7B}"/>
-    <hyperlink ref="A6" location="Horariolaboral!A1" display="HorarioLaboral" xr:uid="{97CE2FCB-895D-4BC4-A8C9-8B03D58BDD06}"/>
-    <hyperlink ref="A7" location="Inventario!A1" display="Inventario" xr:uid="{8D4EEDBA-1D7F-4CE4-B8BB-9EDCE0E5936C}"/>
+    <hyperlink ref="A2" location="'Objeto Dominio-Sucursal'!A1" display="Sucursal" xr:uid="{38AA30CF-FE48-4BE9-903A-567FA870777B}"/>
+    <hyperlink ref="A3" location="'Objeto Dominio-Pais'!A1" display="Pais" xr:uid="{74812270-4596-4D8C-98FA-1974D940CE3B}"/>
+    <hyperlink ref="A4" location="'Objeto Dominio-Departamento'!A1" display="Departamento" xr:uid="{D1A39FC8-20BD-429F-989C-F68BFDE16166}"/>
+    <hyperlink ref="A5" location="'Objeto Dominio-Ciudad'!A1" display="Ciudad" xr:uid="{64054788-BF5C-4225-968D-499085C79C54}"/>
+    <hyperlink ref="A7" location="'Objeto Dominio-Spa'!A1" display="Spa" xr:uid="{A4856D2F-CF94-44E8-9903-B8278D670699}"/>
+    <hyperlink ref="A6" location="Agenda!A1" display="Agenda" xr:uid="{9B45268A-1399-4762-8DAC-97CEC22BBE8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2613,11 +2204,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9732BFC6-5B3A-4E40-BEA3-58E7EDB79B0C}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:R20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,70 +2238,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$A$3</f>
         <v>Pais</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!$B$3</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de los paises del mundo </v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -2761,21 +2352,21 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="35" t="str">
+      <c r="Q4" s="35" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="33" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S4" s="34" t="str">
         <f>A14</f>
-        <v>crear Pais</v>
-      </c>
-      <c r="R4" s="33" t="str">
-        <f>A16</f>
-        <v>modificar Pais</v>
-      </c>
-      <c r="S4" s="34" t="str">
-        <f>A19</f>
         <v>Consultar Pais</v>
       </c>
-      <c r="T4" s="2" t="str">
-        <f>A20</f>
-        <v>Eliminar Pais</v>
+      <c r="T4" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -2866,11 +2457,11 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="164" t="s">
+      <c r="A8" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="165"/>
-      <c r="C8" s="166"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
@@ -2896,44 +2487,44 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112" t="s">
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112" t="s">
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="112" t="s">
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R12" s="113"/>
+      <c r="R12" s="79"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="168"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
@@ -2946,12 +2537,12 @@
       <c r="J13" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
       <c r="O13" s="18" t="s">
         <v>29</v>
       </c>
@@ -2965,248 +2556,53 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="115" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="125" t="s">
+    <row r="14" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="126" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="127" t="str">
-        <f>B6</f>
-        <v>Alfanumerico</v>
-      </c>
-      <c r="I14" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="127"/>
-      <c r="K14" s="131"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="R14" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136"/>
-      <c r="O15" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="P15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="137" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="138"/>
-      <c r="C16" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="152" t="s">
+      <c r="H14" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="155" t="str">
-        <f>B6</f>
-        <v>Alfanumerico</v>
-      </c>
-      <c r="I16" s="158" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q16" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="R16" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="106"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="R18" s="25" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="H19" s="55" t="str">
-        <f>B6</f>
-        <v>Alfanumerico</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R19" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="56" t="str">
-        <f>B6</f>
-        <v>Alfanumerico</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="P20" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q20" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="R20" s="31" t="s">
-        <v>126</v>
-      </c>
-    </row>
+      <c r="I14" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="129"/>
+      <c r="M14" s="129"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="14">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="K13:N13"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
@@ -3216,28 +2612,6 @@
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:N12"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:N18"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:N15"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BD3FFCC5-4B44-4838-A36D-76DB08190487}"/>
@@ -3247,8 +2621,7 @@
     <hyperlink ref="Q4" location="'Objeto Dominio 1'!A16" display="'Objeto Dominio 1'!A16" xr:uid="{B7DC66C7-CAF0-414F-9819-29E983398B1B}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{EDAD5212-8D62-4F21-A63F-5CE874FBE78D}"/>
     <hyperlink ref="C10" location="'Objeto Dominio-Pais'!A6" display="'Objeto Dominio-Pais'!A6" xr:uid="{D58BF353-51FA-48A8-9FCA-009277B5AD1C}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{0FDBD7FB-CBC4-4E59-B3D5-B504DE8AB506}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{61251E3C-6A26-4D89-8629-79229821214F}"/>
+    <hyperlink ref="A14:B14" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{61251E3C-6A26-4D89-8629-79229821214F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3256,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D88CD-1BA6-4157-9522-8201A0FEDE3C}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3289,70 +2662,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Departamento</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que representa a cada uno de los departamentos que pertenecen a un pais</v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -3403,21 +2776,21 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="35" t="str">
+      <c r="Q4" s="35" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="33" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S4" s="34" t="str">
         <f>A15</f>
-        <v>crear Departamento</v>
-      </c>
-      <c r="R4" s="33" t="str">
-        <f>A18</f>
-        <v>modificar Departamento</v>
-      </c>
-      <c r="S4" s="34" t="str">
-        <f>A21</f>
         <v>Consultar Departamento</v>
       </c>
-      <c r="T4" s="2" t="str">
-        <f>A22</f>
-        <v>Eliminar Departamento</v>
+      <c r="T4" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -3514,37 +2887,19 @@
         <f>'Objeto Dominio-Pais'!B2</f>
         <v>Pais</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>100</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
       <c r="P7" s="7" t="s">
         <v>60</v>
       </c>
@@ -3555,11 +2910,11 @@
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="164" t="s">
+      <c r="A9" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
@@ -3573,10 +2928,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="184" t="s">
+      <c r="B11" s="136" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="50" t="str">
@@ -3585,52 +2940,52 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="183"/>
-      <c r="B12" s="185"/>
+      <c r="A12" s="135"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="48" t="str">
         <f>A7</f>
         <v>País</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="167" t="s">
+      <c r="A13" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112" t="s">
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112" t="s">
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112" t="s">
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="113"/>
+      <c r="R13" s="79"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
       <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
@@ -3643,12 +2998,12 @@
       <c r="J14" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="114" t="s">
+      <c r="K14" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
       <c r="O14" s="18" t="s">
         <v>29</v>
       </c>
@@ -3662,272 +3017,50 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="119" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="129" t="s">
+    <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="177"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="181"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="174"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="176"/>
-      <c r="O16" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="R17" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="143" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="152" t="s">
+      <c r="H15" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="155" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="158" t="s">
-        <v>136</v>
-      </c>
-      <c r="J18" s="100"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q18" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="R18" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="106"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="38"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R21" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22" s="40"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q22" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="R22" s="31" t="s">
-        <v>158</v>
-      </c>
-    </row>
+      <c r="I15" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="129"/>
+      <c r="L15" s="129"/>
+      <c r="M15" s="129"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="16">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="K15:N15"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="A1:P1"/>
@@ -3941,26 +3074,6 @@
     <mergeCell ref="C13:F14"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="J13:N13"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="C18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:N20"/>
-    <mergeCell ref="C15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:N17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0B6B7A21-4F42-4461-B988-DE8CBBB8B21F}"/>
@@ -3972,8 +3085,7 @@
     <hyperlink ref="B7" location="País!B2" display="País!B2" xr:uid="{3A48117C-E173-426D-940E-AC4C230A3507}"/>
     <hyperlink ref="C11" location="'Objeto Dominio N'!A6" display="'Objeto Dominio N'!A6" xr:uid="{CAC205A1-F1E2-4F75-BB03-B985961B3688}"/>
     <hyperlink ref="C12" location="'Objeto Dominio N'!A7" display="'Objeto Dominio N'!A7" xr:uid="{869744DA-2682-45E0-A142-E615AC799C3F}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{A627CFA5-FC1E-40AB-9582-2AAC55421397}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BD343D16-6E0F-4D31-9435-62CD96CF7B0E}"/>
+    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{BD343D16-6E0F-4D31-9435-62CD96CF7B0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3982,7 +3094,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4644E57-D5FD-4BD1-A668-516B14C72B18}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -4015,70 +3127,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Ciudad</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de domino que contiene el nombre de las ciudades  que pertenecen a un departamento determinado </v>
       </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -4129,21 +3241,21 @@
       <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="35" t="str">
-        <f>A20</f>
-        <v>crear Ciudad</v>
-      </c>
-      <c r="R4" s="33" t="str">
-        <f>A23</f>
-        <v>modificar Ciudad</v>
+      <c r="Q4" s="35" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R4" s="33" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="S4" s="34" t="str">
-        <f>A26</f>
+        <f>A19</f>
         <v>Consultar Ciudad</v>
       </c>
-      <c r="T4" s="2" t="str">
-        <f>A27</f>
-        <v>Eliminar Ciudad</v>
+      <c r="T4" s="2" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -4254,12 +3366,20 @@
       <c r="K7" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="21"/>
@@ -4268,527 +3388,222 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B8" s="49" t="str">
-        <f>'Objeto Dominio-Pais'!B2</f>
-        <v>Pais</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5">
-        <v>100</v>
-      </c>
+        <f>'Objeto Dominio-Departamento'!B2</f>
+        <v>Departamento</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
       <c r="P8" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="32"/>
       <c r="R8" s="21"/>
       <c r="S8" s="26"/>
       <c r="T8" s="29"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="49" t="str">
-        <f>'Objeto Dominio-Departamento'!B2</f>
-        <v>Departamento</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>100</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="29"/>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+    </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="164" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="165"/>
-      <c r="C11" s="166"/>
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="186" t="s">
+      <c r="A12" s="151" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="189" t="s">
+      <c r="B12" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="50" t="str">
+      <c r="C12" s="50" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="152"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="50"/>
+    </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
-      <c r="B14" s="190"/>
+      <c r="A14" s="153"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="50" t="str">
-        <f>A8</f>
-        <v>País</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="188"/>
-      <c r="B15" s="191"/>
-      <c r="C15" s="50" t="str">
-        <f>+A9</f>
+        <f>+A8</f>
         <v>Departamento</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="52" t="str">
+    <row r="15" spans="1:20" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="52" t="str">
         <f>A7</f>
         <v>CodigoPostal</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="79"/>
+    </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="167" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="112" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="113"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="168"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="114"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="18" t="s">
+      <c r="J18" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="114" t="s">
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="18" t="s">
+      <c r="Q18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R19" s="23" t="s">
+      <c r="R18" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="129" t="s">
+    <row r="19" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="127"/>
+      <c r="C19" s="128" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="129" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" s="127"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q20" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="177"/>
-      <c r="B21" s="178"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="174"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="P21" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q21" s="20" t="s">
+      <c r="H19" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="129"/>
+      <c r="L19" s="129"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="129"/>
+      <c r="O19" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="R21" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
-      <c r="O22" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="P22" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q22" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="137" t="s">
-        <v>163</v>
-      </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="143" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="155" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="158" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="100"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="R23" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="106"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="P25" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="R25" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="P26" s="27" t="s">
+      <c r="P19" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="Q26" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="J27" s="40"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q27" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="R27" s="31" t="s">
-        <v>194</v>
-      </c>
-    </row>
+    </row>
+    <row r="20" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:18" ht="57.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:18" ht="80.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="C20:F22"/>
+  <mergeCells count="16">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:F19"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="A23:B25"/>
-    <mergeCell ref="C23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="K20:N22"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:F18"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{BA3A4ED8-2AE5-4761-B88E-CB3C77CFAE6C}"/>
@@ -4797,14 +3612,11 @@
     <hyperlink ref="T4" location="'Objeto Dominio N'!A19" display="'Objeto Dominio N'!A19" xr:uid="{036F5095-942C-4A56-A1F0-D3DB2617AE8B}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio N'!A16" display="'Objeto Dominio N'!A16" xr:uid="{5D34552A-7F66-4483-8FB0-FCF5DE657E58}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BFBD8B43-D0EA-4135-84A1-22F7DB17AA56}"/>
-    <hyperlink ref="C13" location="'Objeto Dominio-Ciudad'!A6" display="'Objeto Dominio-Ciudad'!A6" xr:uid="{F653200F-45D2-463A-B4C7-32B399B2D6F7}"/>
-    <hyperlink ref="B8" location="País!B2" display="País!B2" xr:uid="{E612F0FE-1C44-4FBF-A4AF-02793C525075}"/>
-    <hyperlink ref="B9" location="Ciudad!B2" display="Ciudad!B2" xr:uid="{9F007147-2573-47FB-9CDE-724ACA153BC3}"/>
-    <hyperlink ref="C16" location="'Objeto Dominio-Ciudad'!A7" display="'Objeto Dominio-Ciudad'!A7" xr:uid="{747674A8-2D28-4F95-8FFD-476785798524}"/>
-    <hyperlink ref="C14" location="'Objeto Dominio-Ciudad'!A8" display="'Objeto Dominio-Ciudad'!A8" xr:uid="{AD615A5D-1B8F-4147-B924-7DE2A03FF226}"/>
-    <hyperlink ref="C15" location="'Objeto Dominio-Ciudad'!A9" display="'Objeto Dominio-Ciudad'!A9" xr:uid="{7C086E54-6DD0-486B-ABB7-38B948C38361}"/>
-    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{AF5AF244-5987-416F-8802-AA33E085B044}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{B9947910-693F-4B75-92CF-4D70473551A1}"/>
+    <hyperlink ref="C12" location="'Objeto Dominio-Ciudad'!A6" display="'Objeto Dominio-Ciudad'!A6" xr:uid="{F653200F-45D2-463A-B4C7-32B399B2D6F7}"/>
+    <hyperlink ref="B8" location="Ciudad!B2" display="Ciudad!B2" xr:uid="{9F007147-2573-47FB-9CDE-724ACA153BC3}"/>
+    <hyperlink ref="C15" location="'Objeto Dominio-Ciudad'!A7" display="'Objeto Dominio-Ciudad'!A7" xr:uid="{747674A8-2D28-4F95-8FFD-476785798524}"/>
+    <hyperlink ref="C14" location="'Objeto Dominio-Ciudad'!A9" display="'Objeto Dominio-Ciudad'!A9" xr:uid="{7C086E54-6DD0-486B-ABB7-38B948C38361}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{B9947910-693F-4B75-92CF-4D70473551A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4814,8 +3626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4845,70 +3657,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A2</f>
         <v>Sucursal</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B2</f>
-        <v>Objeto de dominio que contiene la informacion de las sucursales del Spa</v>
-      </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
+        <v>Objeto de dominio que contiene la informacion de la ubicación de las sucursales del Spa</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5009,7 +3821,7 @@
         <v>48</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="21"/>
@@ -5053,7 +3865,7 @@
         <v>49</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="21"/>
@@ -5062,7 +3874,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>51</v>
@@ -5095,7 +3907,7 @@
         <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="21"/>
@@ -5104,7 +3916,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>47</v>
@@ -5137,7 +3949,7 @@
         <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="32"/>
       <c r="R8" s="21"/>
@@ -5146,7 +3958,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>51</v>
@@ -5179,7 +3991,7 @@
         <v>49</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="32"/>
       <c r="R9" s="21"/>
@@ -5191,7 +4003,9 @@
         <f>'Objeto Dominio-Ciudad'!B2</f>
         <v>Ciudad</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -5213,9 +4027,11 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -5237,10 +4053,12 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="str">
-        <f>'Objeto Dominio-HorarioLaboral'!B2</f>
-        <v>HorarioLaboral</v>
-      </c>
-      <c r="B12" s="5"/>
+        <f>'Objeto Dominio-Agenda'!B2</f>
+        <v>Agenda</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5260,12 +4078,13 @@
       <c r="S12" s="26"/>
       <c r="T12" s="29"/>
     </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="164" t="s">
+      <c r="A14" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
@@ -5279,40 +4098,40 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="189" t="s">
-        <v>93</v>
+      <c r="A16" s="151" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="154" t="s">
+        <v>140</v>
       </c>
       <c r="C16" s="50" t="str">
         <f>A7</f>
         <v>Direccion</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="187"/>
-      <c r="B17" s="190"/>
+    <row r="17" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="152"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="50" t="str">
         <f>A10</f>
         <v>Ciudad</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="196" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" s="189" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="54" t="str">
+      <c r="A18" s="153"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="53" t="str">
         <f>A6</f>
         <v>Nombre</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="197"/>
-      <c r="B19" s="198"/>
+    <row r="19" spans="1:18" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="163" t="s">
+        <v>139</v>
+      </c>
       <c r="C19" s="52" t="str">
         <f>A9</f>
         <v>CorreoElectronico</v>
@@ -5321,44 +4140,44 @@
     <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="192" t="s">
+      <c r="A22" s="158" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="193"/>
-      <c r="C22" s="112" t="s">
+      <c r="B22" s="159"/>
+      <c r="C22" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112" t="s">
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112" t="s">
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112" t="s">
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112" t="s">
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R22" s="113"/>
+      <c r="R22" s="79"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="194"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="G23" s="18" t="s">
         <v>27</v>
       </c>
@@ -5371,12 +4190,12 @@
       <c r="J23" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="114" t="s">
+      <c r="K23" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
       <c r="O23" s="18" t="s">
         <v>29</v>
       </c>
@@ -5391,282 +4210,282 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="115" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="116"/>
-      <c r="C24" s="119" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="125" t="s">
+      <c r="A24" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="81"/>
+      <c r="C24" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="129" t="s">
-        <v>203</v>
-      </c>
-      <c r="J24" s="127"/>
-      <c r="K24" s="131"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+      <c r="H24" s="144" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="92"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
       <c r="O24" s="19" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>225</v>
+        <v>123</v>
       </c>
       <c r="R24" s="24" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="177"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="174"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="176"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
       <c r="O25" s="19" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="P25" s="20" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="20" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="R25" s="24" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="122"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="134"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="136"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="101"/>
       <c r="O26" s="19" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="P26" s="20" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>229</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="137" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="143" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="152" t="s">
+      <c r="A27" s="102" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="155" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="158" t="s">
-        <v>204</v>
-      </c>
-      <c r="J27" s="100"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="105"/>
+      <c r="H27" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="67"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="72"/>
       <c r="O27" s="21" t="s">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>223</v>
+        <v>121</v>
       </c>
       <c r="R27" s="25" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="106"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="108"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="105"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="75"/>
       <c r="O28" s="21" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="R28" s="25" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="141"/>
-      <c r="B29" s="142"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="111"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="77"/>
+      <c r="N29" s="78"/>
       <c r="O29" s="21" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="Q29" s="22" t="s">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="R29" s="25" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
+      <c r="A30" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
       <c r="G30" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="55" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>36</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="J30" s="38"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
       <c r="O30" s="26" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="P30" s="27" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="27" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="96" t="s">
-        <v>198</v>
-      </c>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98" t="s">
-        <v>202</v>
-      </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
+      <c r="A31" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
       <c r="G31" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="56" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>36</v>
       </c>
       <c r="I31" s="39" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="J31" s="40"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="133"/>
+      <c r="N31" s="133"/>
       <c r="O31" s="29" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c r="R31" s="31" t="s">
-        <v>226</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:N26"/>
-    <mergeCell ref="C27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="C24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
+  <mergeCells count="33">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:N29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="A27:B29"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:P1"/>
@@ -5678,19 +4497,17 @@
     <mergeCell ref="G22:I22"/>
     <mergeCell ref="J22:N22"/>
     <mergeCell ref="O22:P22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:N29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="A27:B29"/>
+    <mergeCell ref="A24:B26"/>
+    <mergeCell ref="C24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:N26"/>
+    <mergeCell ref="C27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -5700,14 +4517,14 @@
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{F66CECC3-2EE1-49F8-9E57-39E041254432}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
     <hyperlink ref="A10" location="'Objeto Dominio-Ciudad'!A1" display="'Objeto Dominio-Ciudad'!A1" xr:uid="{075A0144-A38C-45EE-B86D-FE3ECCA6373D}"/>
-    <hyperlink ref="A12" location="'Objeto Dominio-HorarioLaboral'!A1" display="'Objeto Dominio-HorarioLaboral'!A1" xr:uid="{D857CA73-1A9A-4BAF-ABF5-C04DDA62026E}"/>
+    <hyperlink ref="A12" location="'Objeto Dominio-Agenda'!A1" display="'Objeto Dominio-Agenda'!A1" xr:uid="{D857CA73-1A9A-4BAF-ABF5-C04DDA62026E}"/>
     <hyperlink ref="C16" location="'Objeto Dominio-Sucursal'!A7" display="'Objeto Dominio-Sucursal'!A7" xr:uid="{6E5D47AA-F2D4-451F-9DA6-6799A02843BD}"/>
     <hyperlink ref="C17" location="'Objeto Dominio-Sucursal'!A11" display="'Objeto Dominio-Sucursal'!A11" xr:uid="{F030C8DB-5B28-44AD-9CDC-09B19AD20780}"/>
     <hyperlink ref="C19" location="'Objeto Dominio-Sucursal'!A19" display="'Objeto Dominio-Sucursal'!A19" xr:uid="{BFB853EF-1F6F-4457-B3DC-3EAE5AAFC2E9}"/>
-    <hyperlink ref="C18" location="'Objeto Dominio-Sucursal'!A6" display="'Objeto Dominio-Sucursal'!A6" xr:uid="{78FBDDB7-A017-4269-A741-5FDCE1F40453}"/>
     <hyperlink ref="A31:B31" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{F97EEC94-1416-433B-8554-EF24592B23D8}"/>
     <hyperlink ref="A30:B30" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{05F73A4C-A8C8-4376-8BED-1C6DCC245A69}"/>
-    <hyperlink ref="A11" location="'Objeto Dominio-Inventario'!A1" display="inventario" xr:uid="{20C04033-2CA4-4349-99D2-8575841C9D6E}"/>
+    <hyperlink ref="C18" location="'Objeto Dominio-Sucursal'!A6" display="'Objeto Dominio-Sucursal'!A6" xr:uid="{78FBDDB7-A017-4269-A741-5FDCE1F40453}"/>
+    <hyperlink ref="A11" location="'Objeto Dominio-Spa'!A1" display="Spa" xr:uid="{90285363-AC99-4AB8-A137-CC8D40042332}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5716,22 +4533,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84495338-3D0E-4BE4-800D-FFA8CB15E4C6}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -5749,70 +4566,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="161" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="161"/>
-      <c r="P1" s="161"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="162" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A6</f>
-        <v>HorarioLaboral</v>
-      </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="162"/>
-      <c r="O2" s="162"/>
-      <c r="P2" s="162"/>
+        <v>Agenda</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B6</f>
-        <v>Objeto de dominio que contiene la hora de inicio y hora de cerrada de la sucursal</v>
-      </c>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
+        <v>Objeto de domino que representa la disponibilidad de la sucursal para agendar las reservas</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -5864,19 +4681,19 @@
         <v>0</v>
       </c>
       <c r="Q4" s="35" t="str">
-        <f>A15</f>
-        <v>crear HorarioLaboral</v>
+        <f>A16</f>
+        <v>crear Agenda</v>
       </c>
       <c r="R4" s="33">
-        <f>A16</f>
+        <f>A17</f>
         <v>0</v>
       </c>
       <c r="S4" s="34" t="str">
-        <f>A17</f>
-        <v>modificar HorarioLaboral</v>
+        <f>A18</f>
+        <v>modificar Agenda</v>
       </c>
       <c r="T4" s="2">
-        <f>A18</f>
+        <f>A19</f>
         <v>0</v>
       </c>
     </row>
@@ -5913,30 +4730,28 @@
         <v>48</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="32"/>
       <c r="R5" s="21"/>
       <c r="S5" s="26"/>
       <c r="T5" s="29"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="13"/>
       <c r="K6" s="12" t="s">
@@ -5955,7 +4770,7 @@
         <v>49</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="Q6" s="32"/>
       <c r="R6" s="21"/>
@@ -5964,10 +4779,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -5978,7 +4793,9 @@
       <c r="G7" s="5">
         <v>24</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="13"/>
       <c r="K7" s="12" t="s">
@@ -5997,388 +4814,428 @@
         <v>49</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="32"/>
       <c r="R7" s="21"/>
       <c r="S7" s="26"/>
       <c r="T7" s="29"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="164" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="29"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="165"/>
-      <c r="C9" s="166"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="36" t="str">
-        <f>A6&amp;"-"&amp;A7</f>
-        <v>HoraInicio-HoraFin</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="167" t="s">
+    <row r="12" spans="1:20" ht="51.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="36" t="str">
+        <f>A7&amp;"-"&amp;A8&amp;"-"&amp;A6</f>
+        <v>HoraInicio-HoraFin-Fecha</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112" t="s">
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112" t="s">
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112" t="s">
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="R13" s="113"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="168"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="18" t="s">
+      <c r="R14" s="79"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="114" t="s">
+      <c r="K15" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="18" t="s">
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="18" t="s">
+      <c r="P15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="18" t="s">
+      <c r="Q15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R15" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
-        <v>230</v>
-      </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="127" t="str">
-        <f>B7</f>
-        <v>Numerico</v>
-      </c>
-      <c r="I15" s="129" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" s="127"/>
-      <c r="K15" s="131"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="136"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="90" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="92"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="98"/>
       <c r="O16" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="P16" s="20" t="s">
-        <v>249</v>
+        <v>169</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="R16" s="24" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="137" t="s">
-        <v>231</v>
-      </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="143" t="s">
-        <v>235</v>
-      </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="155" t="str">
-        <f>B7</f>
-        <v>Numerico</v>
-      </c>
-      <c r="I17" s="158" t="s">
-        <v>240</v>
-      </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q17" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>259</v>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="108"/>
+      <c r="A18" s="102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="103"/>
+      <c r="C18" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="117" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" s="123" t="s">
+        <v>167</v>
+      </c>
+      <c r="J18" s="67"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="21" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="R18" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="109"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="111"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="104"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="75"/>
       <c r="O19" s="21" t="s">
-        <v>261</v>
+        <v>170</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="22" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="R19" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="94" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="55" t="str">
-        <f>B7</f>
-        <v>Numerico</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="R20" s="28" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
-        <v>233</v>
-      </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="H21" s="56" t="str">
-        <f>B7</f>
-        <v>Numerico</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="29" t="s">
-        <v>247</v>
-      </c>
-      <c r="P21" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q21" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="R21" s="31" t="s">
-        <v>257</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="106"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="P20" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="R20" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="126" t="s">
+        <v>163</v>
+      </c>
+      <c r="B21" s="127"/>
+      <c r="C21" s="128" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="38"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="129"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="130" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" s="40"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:N19"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="C17:F19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:F14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:N17"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:N20"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="C18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{8E207C90-917A-4311-90B7-19CA4BE7C54B}"/>
@@ -6387,8 +5244,8 @@
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{A4572EE9-2E51-47E2-8657-2E92FD3B75B3}"/>
     <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{7C6D484B-4E1E-4293-B67E-DC0C0958A49C}"/>
     <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{3FBD0767-63EB-46CD-AEC4-84DE0AF542BF}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{501845A0-4C39-4FE2-B7C2-F6A84DB07A25}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{9B1A891E-D71B-42E9-94EF-101EEE5F21C9}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{501845A0-4C39-4FE2-B7C2-F6A84DB07A25}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{9B1A891E-D71B-42E9-94EF-101EEE5F21C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6396,105 +5253,97 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDEEF1A-ED62-4B8D-B4EB-E36151625124}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="79.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="94.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="33.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.85546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="203" t="str">
-        <f>'Listado Objetos de Dominio'!A7</f>
-        <v>Inventario</v>
-      </c>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-    </row>
-    <row r="3" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="58" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$2</f>
+        <v>Spa</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="200" t="str">
-        <f>'Listado Objetos de Dominio'!B7</f>
-        <v>Objeto de dominio que contiene la informacion del inventario según su productos y su sucursal</v>
-      </c>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="59" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$2</f>
+        <v>Objeto de dominio que contiene todo lo relacionado con la empresa</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -6510,57 +5359,41 @@
       <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="86" t="s">
+      <c r="J4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="86" t="s">
+      <c r="L4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="86" t="s">
+      <c r="M4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="35" t="str">
-        <f>A15</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="R4" s="33" t="str">
-        <f>A16</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="S4" s="34" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="T4" s="2" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
@@ -6576,7 +5409,9 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="K5" s="12" t="s">
         <v>48</v>
       </c>
@@ -6593,14 +5428,10 @@
         <v>48</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="29"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
@@ -6639,223 +5470,77 @@
         <v>49</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="29"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
         <v>0</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="60"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="24"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
-        <v>270</v>
-      </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="31"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{CB65219E-FAE2-4848-B80F-DFD436C867A9}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{199D8F6E-E6B4-4D0D-8EBA-243B8AD4EFDE}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{614595AB-4167-47BD-8179-F8D354EB39D8}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{B7544926-4893-4158-9AF6-47F2CE4FB327}"/>
-    <hyperlink ref="Q4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{789D3603-4EF5-4A2E-A094-88B49F25D0DA}"/>
-    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{83564A42-76E6-45CE-8376-CD806BAD011D}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{4FDC775F-886D-46E4-AAB2-FA662F6335CA}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{5AF94D65-BEC4-46D5-A3D0-F8614661199B}"/>
-    <hyperlink ref="A15:B15" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{8935ED35-0737-4E8A-AB92-6D40E9FA9051}"/>
-    <hyperlink ref="A16:B16" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{DAD9E994-AFF4-498F-92B2-2E8D8AFC5A4A}"/>
-    <hyperlink ref="H18" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{691CF3EE-2C7C-4944-B7DA-DB62C642BD15}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{0F630A9A-C723-4003-BD88-3A5E06827DE1}"/>
+    <hyperlink ref="A1:P1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{ED29AE41-D632-4C60-A2DC-456CDAD461D0}"/>
+    <hyperlink ref="A8" location="TipoIdentificacion!B2" display="Tipo Identificacion" xr:uid="{AD6035FD-99FF-484A-B1E5-54BB1734FEDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -6999,12 +5684,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7015,6 +5694,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E282A27-30A7-45EE-9230-09337AE2DBA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7032,15 +5720,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
